--- a/biology/Mycologie/Russulales/Russulales.xlsx
+++ b/biology/Mycologie/Russulales/Russulales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Russulales sont un ordre de champignons basidiomycètes (règne des Fungi), incluant les genres Russula et Lactarius. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez ces champignons, la texture de la chair est grenue, cassante et friable, en raison de la présence d'hyphes cylindriques moins cohérentes, constituées de cellules arrondies (sphérocystes groupées autour de laticifères). Leur pied se casse franchement comme un morceau de craie et peut être facilement émietté. Chez tous les autres groupes de champignons, la texture est fibreuse, car la chair est constituée de filaments mycéliens allongés[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez ces champignons, la texture de la chair est grenue, cassante et friable, en raison de la présence d'hyphes cylindriques moins cohérentes, constituées de cellules arrondies (sphérocystes groupées autour de laticifères). Leur pied se casse franchement comme un morceau de craie et peut être facilement émietté. Chez tous les autres groupes de champignons, la texture est fibreuse, car la chair est constituée de filaments mycéliens allongés.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique les divise en deux groupes distincts[2]. Deux grands groupes sœur englobant 11 à 13 clades majeurs ont été identifiés dans les Russulales. Basé sur les études moléculaires et morphologiques 12 familles et environ 80 genres ont été identifiés, bien que le placement de nombreux taxons n'est pas encore déterminé. Les deux clades contenant ses taxons ectomycorhiziens, correspondant aux familles des Russulaceae et des Albatrellaceae, représentent la plus grande diversité des morphologies de sporophores[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique les divise en deux groupes distincts. Deux grands groupes sœur englobant 11 à 13 clades majeurs ont été identifiés dans les Russulales. Basé sur les études moléculaires et morphologiques 12 familles et environ 80 genres ont été identifiés, bien que le placement de nombreux taxons n'est pas encore déterminé. Les deux clades contenant ses taxons ectomycorhiziens, correspondant aux familles des Russulaceae et des Albatrellaceae, représentent la plus grande diversité des morphologies de sporophores.
 </t>
         </is>
       </c>
@@ -575,8 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Position des Russulales
-Principaux clades proches des Russulales
+          <t>Position des Russulales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Principaux clades proches des Russulales
 Agaricomycetes
 …
 Phallomycetidae
@@ -588,8 +609,43 @@
 Clade des Russulaceae
 Agaricomycetidae
 Clade des Boletales
-Clade des Agaricales (ou Clade des Euagarics)
-Phylogramme détaillé des Russulales
+Clade des Agaricales (ou Clade des Euagarics)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Russulales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Russulales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogramme détaillé des Russulales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agaricomycetes
 Russulales
 Stereaceae — clade résupiné
@@ -608,33 +664,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Russulales</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Russulales</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après la 10e édition du Dictionary of the Fungi[4], en 2008), cet ordre est constitué des familles suivantes :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la 10e édition du Dictionary of the Fungi, en 2008), cet ordre est constitué des familles suivantes :
 Albatrellaceae
 Amylostereaceae
 Auriscalpiaceae
